--- a/光照模型性能测试.xlsx
+++ b/光照模型性能测试.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myroom\projects\LightModelPerformace\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C54B6-769F-4B80-8D7E-A0EF27DE5D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>BRDF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +104,22 @@
   </si>
   <si>
     <t>intel HD 530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红米note9pro 750G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红米K30 5G 765G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,20 +478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -511,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -557,7 +566,7 @@
         <v>1.2919896640826874E-2</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U13" si="0">L2/$P2</f>
+        <f t="shared" ref="U2:U17" si="0">L2/$P2</f>
         <v>1.8297872340425532</v>
       </c>
       <c r="V2" s="1">
@@ -577,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -600,7 +609,7 @@
         <v>2624</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L13" si="2">(1000/$B3)/C3</f>
+        <f t="shared" ref="L3:L17" si="2">(1000/$B3)/C3</f>
         <v>2.3408239700374533E-2</v>
       </c>
       <c r="M3">
@@ -640,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -712,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -775,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -871,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -967,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1003,23 +1012,23 @@
         <v>0.14492753623188406</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M13" si="45">(1000/$B8)/D8</f>
+        <f t="shared" ref="M8:M17" si="45">(1000/$B8)/D8</f>
         <v>0.10683760683760685</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N13" si="46">(1000/$B8)/E8</f>
+        <f t="shared" ref="N8:N17" si="46">(1000/$B8)/E8</f>
         <v>8.9126559714795009E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O13" si="47">(1000/$B8)/F8</f>
+        <f t="shared" ref="O8:O17" si="47">(1000/$B8)/F8</f>
         <v>9.4161958568738241E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P13" si="48">(1000/$B8)/G8</f>
+        <f t="shared" ref="P8:P17" si="48">(1000/$B8)/G8</f>
         <v>7.6452599388379214E-2</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q13" si="49">(1000/$B8)/H8</f>
+        <f t="shared" ref="Q8:Q17" si="49">(1000/$B8)/H8</f>
         <v>0.10615711252653928</v>
       </c>
       <c r="R8">
@@ -1035,19 +1044,19 @@
         <v>1.8956521739130434</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" ref="V8:V13" si="52">M8/$P8</f>
+        <f t="shared" ref="V8:V17" si="52">M8/$P8</f>
         <v>1.3974358974358974</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8:W13" si="53">N8/$P8</f>
+        <f t="shared" ref="W8:W17" si="53">N8/$P8</f>
         <v>1.1657754010695185</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" ref="X8:X13" si="54">O8/$P8</f>
+        <f t="shared" ref="X8:X17" si="54">O8/$P8</f>
         <v>1.231638418079096</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" ref="Y8:Y13" si="55">P8/$P8</f>
+        <f t="shared" ref="Y8:Y17" si="55">P8/$P8</f>
         <v>1</v>
       </c>
       <c r="Z8" s="1">
@@ -1063,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1330,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1463,6 +1472,310 @@
         <v>1.916666666666667</v>
       </c>
       <c r="Y13" s="1">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>155</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>49</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="45"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="46"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="47"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="48"/>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="49"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="52"/>
+        <v>3.875</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="53"/>
+        <v>3.1</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="54"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>127</v>
+      </c>
+      <c r="G15">
+        <v>322</v>
+      </c>
+      <c r="H15">
+        <v>82</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.0752688172043012</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="45"/>
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="46"/>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="47"/>
+        <v>0.52493438320209973</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="48"/>
+        <v>0.20703933747412009</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="49"/>
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1935483870967749</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="52"/>
+        <v>3.9268292682926833</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="53"/>
+        <v>3.0961538461538463</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="54"/>
+        <v>2.5354330708661417</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
+        <v>58</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>69</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="45"/>
+        <v>0.57471264367816099</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="46"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="47"/>
+        <v>0.37878787878787884</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="48"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="49"/>
+        <v>0.57471264367816099</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6585365853658538</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="52"/>
+        <v>2.5862068965517242</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="53"/>
+        <v>2.5</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="54"/>
+        <v>1.7045454545454546</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>180</v>
+      </c>
+      <c r="G17">
+        <v>308</v>
+      </c>
+      <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="I17">
+        <v>143</v>
+      </c>
+      <c r="J17">
+        <v>145</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="45"/>
+        <v>0.57471264367816099</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="46"/>
+        <v>0.52493438320209973</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="47"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="48"/>
+        <v>0.21645021645021648</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="49"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4606741573033708</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="52"/>
+        <v>2.6551724137931036</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="53"/>
+        <v>2.4251968503937005</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="54"/>
+        <v>1.711111111111111</v>
+      </c>
+      <c r="Y17" s="1">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
